--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipC1\InputData\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/endo-learn/bgbsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A0E28F-C5A8-E04F-B807-007750CDE6A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="8740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,19 @@
     <sheet name="Calculations" sheetId="7" r:id="rId4"/>
     <sheet name="BGBSC" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -258,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -595,7 +605,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -705,6 +715,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,15 +725,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="5"/>
+    <cellStyle name="Normal 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Table Header 2" xfId="3"/>
+    <cellStyle name="Table Header 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -848,7 +859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1542,7 +1552,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2346,7 +2355,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2428,7 +2436,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4991,7 +4998,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5021,7 +5034,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5051,7 +5070,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5331,22 +5356,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="65">
+        <v>44307</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5354,42 +5382,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="59">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="60" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="59">
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
         <v>64</v>
       </c>
@@ -5401,35 +5429,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A9:AD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="12.7109375" customWidth="1"/>
-    <col min="28" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -5521,7 +5548,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -5613,7 +5640,7 @@
         <v>223.71053661763759</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -5705,7 +5732,7 @@
         <v>180.40979354233912</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
@@ -5826,7 +5853,7 @@
         <v>404.12033015997667</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>2</v>
       </c>
@@ -5918,7 +5945,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
@@ -6010,7 +6037,7 @@
         <v>559.27634154409395</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
@@ -6102,7 +6129,7 @@
         <v>414.94252514737997</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -6223,7 +6250,7 @@
         <v>974.21886669147398</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -6254,7 +6281,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="18"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -6285,17 +6312,17 @@
       <c r="AC20" s="18"/>
       <c r="AD20" s="18"/>
     </row>
-    <row r="21" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -6367,7 +6394,7 @@
       <c r="AC23" s="20"/>
       <c r="AD23" s="20"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6439,7 +6466,7 @@
       <c r="AC24" s="21"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -6511,7 +6538,7 @@
       <c r="AC25" s="21"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -6590,7 +6617,7 @@
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -6602,7 +6629,7 @@
       <c r="AC27" s="21"/>
       <c r="AD27" s="21"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>13</v>
       </c>
@@ -6617,7 +6644,7 @@
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -6689,7 +6716,7 @@
       <c r="AC29" s="20"/>
       <c r="AD29" s="20"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -6775,38 +6802,38 @@
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="61" t="s">
+    <row r="37" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="61" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="63"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>2</v>
       </c>
@@ -6826,7 +6853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>21</v>
       </c>
@@ -6848,7 +6875,7 @@
         <v>185.24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>11</v>
       </c>
@@ -6870,7 +6897,7 @@
         <v>235.76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>3</v>
       </c>
@@ -6946,9 +6973,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
-    <hyperlink ref="A28" r:id="rId2"/>
-    <hyperlink ref="A35" r:id="rId3"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A28" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A35" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -6956,44 +6983,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:AC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="63"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>25</v>
       </c>
@@ -7013,7 +7040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>28</v>
       </c>
@@ -7033,7 +7060,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>29</v>
       </c>
@@ -7057,7 +7084,7 @@
         <v>755.86500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>30</v>
       </c>
@@ -7082,7 +7109,7 @@
         <v>4776.8649999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -7090,7 +7117,7 @@
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -7098,12 +7125,12 @@
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
     </row>
-    <row r="19" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -7188,7 +7215,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -7251,7 +7278,7 @@
       <c r="AB21" s="50"/>
       <c r="AC21" s="50"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -7334,29 +7361,29 @@
         <v>64044441.576322578</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E23" s="58"/>
     </row>
-    <row r="30" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D33" s="53">
         <v>2016</v>
       </c>
@@ -7433,7 +7460,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>38</v>
       </c>
@@ -7515,7 +7542,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
         <v>39</v>
       </c>
@@ -7597,7 +7624,7 @@
         <v>235.3</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
         <v>40</v>
       </c>
@@ -7679,7 +7706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>41</v>
       </c>
@@ -7761,7 +7788,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>42</v>
       </c>
@@ -7843,14 +7870,14 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="52" t="s">
         <v>37</v>
       </c>
@@ -7932,7 +7959,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
         <v>38</v>
       </c>
@@ -8014,7 +8041,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
         <v>39</v>
       </c>
@@ -8096,7 +8123,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
         <v>40</v>
       </c>
@@ -8178,7 +8205,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
         <v>41</v>
       </c>
@@ -8260,7 +8287,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
         <v>42</v>
       </c>
@@ -8342,7 +8369,7 @@
         <v>403.3</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
         <v>44</v>
       </c>
@@ -8424,7 +8451,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
         <v>45</v>
       </c>
@@ -8518,32 +8545,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2017</v>
       </c>
@@ -8647,7 +8674,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -8758,7 +8785,7 @@
       <c r="AH6" s="57"/>
       <c r="AI6" s="57"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -8827,17 +8854,17 @@
         <v>1886.9714866770373</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>2015</v>
       </c>
@@ -8947,7 +8974,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -9016,7 +9043,7 @@
         <v>1293.7275038027401</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -9061,7 +9088,7 @@
         <v>3391.3723653630636</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -9106,17 +9133,17 @@
         <v>3755.7243998407343</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2015</v>
       </c>
@@ -9226,7 +9253,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -9243,143 +9270,143 @@
         <v>118.64035484649668</v>
       </c>
       <c r="E37">
-        <f>SUM(E29:E31,D37)</f>
+        <f t="shared" ref="E37:AK37" si="3">SUM(E29:E31,D37)</f>
         <v>197.03043885921286</v>
       </c>
       <c r="F37">
-        <f>SUM(F29:F31,E37)</f>
+        <f t="shared" si="3"/>
         <v>302.74835368767066</v>
       </c>
       <c r="G37">
-        <f>SUM(G29:G31,F37)</f>
+        <f t="shared" si="3"/>
         <v>425.72757874852903</v>
       </c>
       <c r="H37">
-        <f>SUM(H29:H31,G37)</f>
+        <f t="shared" si="3"/>
         <v>575.86949977490178</v>
       </c>
       <c r="I37">
-        <f>SUM(I29:I31,H37)</f>
+        <f t="shared" si="3"/>
         <v>765.364902546336</v>
       </c>
       <c r="J37">
-        <f>SUM(J29:J31,I37)</f>
+        <f t="shared" si="3"/>
         <v>1016.6227401775376</v>
       </c>
       <c r="K37">
-        <f>SUM(K29:K31,J37)</f>
+        <f t="shared" si="3"/>
         <v>1341.8637619495253</v>
       </c>
       <c r="L37">
-        <f>SUM(L29:L31,K37)</f>
+        <f t="shared" si="3"/>
         <v>1750.588392180925</v>
       </c>
       <c r="M37">
-        <f>SUM(M29:M31,L37)</f>
+        <f t="shared" si="3"/>
         <v>2263.4056480275885</v>
       </c>
       <c r="N37">
-        <f>SUM(N29:N31,M37)</f>
+        <f t="shared" si="3"/>
         <v>2918.2880642200362</v>
       </c>
       <c r="O37">
-        <f>SUM(O29:O31,N37)</f>
+        <f t="shared" si="3"/>
         <v>3737.6146669689142</v>
       </c>
       <c r="P37">
-        <f>SUM(P29:P31,O37)</f>
+        <f t="shared" si="3"/>
         <v>4773.6180153913629</v>
       </c>
       <c r="Q37">
-        <f>SUM(Q29:Q31,P37)</f>
+        <f t="shared" si="3"/>
         <v>6067.345519194103</v>
       </c>
       <c r="R37">
-        <f>SUM(R29:R31,Q37)</f>
+        <f t="shared" si="3"/>
         <v>7602.9444658074335</v>
       </c>
       <c r="S37">
-        <f>SUM(S29:S31,R37)</f>
+        <f t="shared" si="3"/>
         <v>9382.5278300474056</v>
       </c>
       <c r="T37">
-        <f>SUM(T29:T31,S37)</f>
+        <f t="shared" si="3"/>
         <v>11437.651645685268</v>
       </c>
       <c r="U37">
-        <f>SUM(U29:U31,T37)</f>
+        <f t="shared" si="3"/>
         <v>13752.609149338125</v>
       </c>
       <c r="V37">
-        <f>SUM(V29:V31,U37)</f>
+        <f t="shared" si="3"/>
         <v>16295.56631069264</v>
       </c>
       <c r="W37">
-        <f>SUM(W29:W31,V37)</f>
+        <f t="shared" si="3"/>
         <v>19029.568807095886</v>
       </c>
       <c r="X37">
-        <f>SUM(X29:X31,W37)</f>
+        <f t="shared" si="3"/>
         <v>21964.091308494582</v>
       </c>
       <c r="Y37">
-        <f>SUM(Y29:Y31,X37)</f>
+        <f t="shared" si="3"/>
         <v>25090.631486405513</v>
       </c>
       <c r="Z37">
-        <f>SUM(Z29:Z31,Y37)</f>
+        <f t="shared" si="3"/>
         <v>28374.139261892171</v>
       </c>
       <c r="AA37">
-        <f>SUM(AA29:AA31,Z37)</f>
+        <f t="shared" si="3"/>
         <v>31765.511627255233</v>
       </c>
       <c r="AB37">
-        <f>SUM(AB29:AB31,AA37)</f>
+        <f t="shared" si="3"/>
         <v>35234.564654767724</v>
       </c>
       <c r="AC37">
-        <f>SUM(AC29:AC31,AB37)</f>
+        <f t="shared" si="3"/>
         <v>38775.340393963677</v>
       </c>
       <c r="AD37">
-        <f>SUM(AD29:AD31,AC37)</f>
+        <f t="shared" si="3"/>
         <v>42372.326511629712</v>
       </c>
       <c r="AE37">
-        <f>SUM(AE29:AE31,AD37)</f>
+        <f t="shared" si="3"/>
         <v>46013.004256935346</v>
       </c>
       <c r="AF37">
-        <f>SUM(AF29:AF31,AE37)</f>
+        <f t="shared" si="3"/>
         <v>49687.427106577707</v>
       </c>
       <c r="AG37">
-        <f>SUM(AG29:AG31,AF37)</f>
+        <f t="shared" si="3"/>
         <v>53387.785631622544</v>
       </c>
       <c r="AH37">
-        <f>SUM(AH29:AH31,AG37)</f>
+        <f t="shared" si="3"/>
         <v>57108.003464552974</v>
       </c>
       <c r="AI37">
-        <f>SUM(AI29:AI31,AH37)</f>
+        <f t="shared" si="3"/>
         <v>60843.384953727866</v>
       </c>
       <c r="AJ37">
-        <f>SUM(AJ29:AJ31,AI37)</f>
+        <f t="shared" si="3"/>
         <v>64590.320145691519</v>
       </c>
       <c r="AK37">
-        <f>SUM(AK29:AK31,AJ37)</f>
+        <f t="shared" si="3"/>
         <v>68346.044545532248</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="61">
         <v>2</v>
       </c>
     </row>
@@ -9391,7 +9418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9399,14 +9426,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="35" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2017</v>
       </c>
@@ -9510,7 +9537,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/endo-learn/bgbsc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/endo-learn/bgbsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A0E28F-C5A8-E04F-B807-007750CDE6A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE82D8B-D091-5243-AE09-503C9C660BC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22640" windowHeight="8740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A998F507-B6A1-4FE3-9884-01B2D24E8A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF225A-7568-4778-89A3-1CD84988F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>https://about.bnef.com/electric-vehicle-outlook/</t>
-  </si>
-  <si>
-    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -271,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2841,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2852,18 +2848,12 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="18">
-        <v>45531</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2871,57 +2861,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
